--- a/Assignment6/Resistance_Data.xlsx
+++ b/Assignment6/Resistance_Data.xlsx
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -466,7 +466,7 @@
         <v>0.09</v>
       </c>
       <c r="F3" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -486,7 +486,7 @@
         <v>0.013</v>
       </c>
       <c r="F4" t="n">
-        <v>0.079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -506,7 +506,7 @@
         <v>0.013</v>
       </c>
       <c r="F5" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
